--- a/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>0,0; 9,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0,0; 8,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1790,12 +1790,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,1</t>
+          <t>0,37; 4,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,0</t>
+          <t>0,17; 1,89</t>
         </is>
       </c>
     </row>
@@ -1912,6 +1912,13 @@
       <c r="K27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 9,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,5</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,88</t>
+          <t>0,0; 8,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,0; 4,27</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1790,12 +1790,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,89</t>
+          <t>0,17; 1,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A07-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,05</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,17</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 1,8</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1700,230 +1700,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,26</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,32</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,09</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
